--- a/ArShared/src/main/resources/Dictionary.xlsx
+++ b/ArShared/src/main/resources/Dictionary.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8180" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="Hindi" sheetId="20" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>eccentric</t>
   </si>
@@ -337,6 +338,12 @@
   </si>
   <si>
     <t>asa</t>
+  </si>
+  <si>
+    <t>संदेहवादी</t>
+  </si>
+  <si>
+    <t>skeptic</t>
   </si>
 </sst>
 </file>
@@ -654,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,6 +1100,14 @@
         <v>102</v>
       </c>
     </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B24" r:id="rId1" display="https://dict.hinkhoj.com/%E0%A4%9A%E0%A5%8B%E0%A4%B2%E0%A5%80-meaning-in-english.words"/>
